--- a/medicine/Enfance/Axl_Cendres/Axl_Cendres.xlsx
+++ b/medicine/Enfance/Axl_Cendres/Axl_Cendres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Axl Cendres, née en octobre 1981 et morte le 1er octobre 2019[1], est une auteure française spécialisée dans la littérature dite « young adult », c'est-à-dire celle destinée à un lectorat d'adolescents et de jeunes adultes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Axl Cendres, née en octobre 1981 et morte le 1er octobre 2019, est une auteure française spécialisée dans la littérature dite « young adult », c'est-à-dire celle destinée à un lectorat d'adolescents et de jeunes adultes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes ses œuvres sont publiées par les Éditions Sarbacane.
 </t>
@@ -544,18 +558,95 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans : dans la collection eXprim'
-Aimez-moi Maintenant, 2008
+          <t>Romans : dans la collection eXprim'</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aimez-moi Maintenant, 2008
 Mes idées folles, 2009
 Échecs et But !, 2010
 Dysfonctionnelle, 2015
-Cœur battant, 2018
-dans la collection Mini-roman
-Les Maux du cœur, 2011
+Cœur battant, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Axl_Cendres</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Axl_Cendres</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans : dans la collection eXprim'</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>dans la collection Mini-roman</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Maux du cœur, 2011
 Le Secret d'Estéban, 2012
-Confessions d'un apprenti gangster, 2013
-Nouvelles
-Hangover, revue En attendant l'or, mars 2007
+Confessions d'un apprenti gangster, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Axl_Cendres</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Axl_Cendres</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hangover, revue En attendant l'or, mars 2007
 La Frite et l'Abricot plein, Standard Magazine, juillet 2009
 Chérie se met au vert, Standard Magazine, juillet 2010
 La Farce, revue Borborygmes, juin 2011
@@ -563,104 +654,144 @@
 La Petite Brune aux cheveux blonds, La Marseillaise, novembre 2013
 Chez Adri, chapitre « bonus » d’après Dysfonctionnelle, recueil  eXprim' 10 ans d'émotions fortes, septembre 2016
 Snow White And The Dwarfs, livre/CD « Des livres et nous des chansons », Les Ducs, 2016
-In Gode We Trust, collectif « 16 nuances de première fois », Éditions Eyrolles, 2017
-Poèmes
-Le Lait à l'amante, revue Les Refusés, mars 2008
+In Gode We Trust, collectif « 16 nuances de première fois », Éditions Eyrolles, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Axl_Cendres</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Axl_Cendres</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poèmes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Lait à l'amante, revue Les Refusés, mars 2008
 Mes démons, revue Les Refusés, mars 2008
 Le Voyage, revue Les Refusés, septembre 2009
 Le Secret, revue Borborygmes, décembre 2009</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Axl_Cendres</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Axl_Cendres</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2012 : « Pépite du roman adolescent européen »[2] au Salon du livre et de la presse jeunesse de Montreuil  pour La drôle de vie de Bibow Bradley
-2016 : Prix A-Fictionados pour Dysfonctionnelle[3]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2012 : « Pépite du roman adolescent européen » au Salon du livre et de la presse jeunesse de Montreuil  pour La drôle de vie de Bibow Bradley
+2016 : Prix A-Fictionados pour Dysfonctionnelle
 2018 : « Les étoiles du Parisien » du meilleur roman jeunesse  pour Cœur Battant
-2020 : Prix Ados en colère[4] du Salon du livre d'expression populaire et de critique sociale d'Arras pour Cœur Battant</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+2020 : Prix Ados en colère du Salon du livre d'expression populaire et de critique sociale d'Arras pour Cœur Battant</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Axl_Cendres</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Axl_Cendres</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Hommage : Le Prix Cendres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, avec l’accord de la famille, est créé en son hommage le Prix Cendres[5] qui « récompense chaque année un auteur de premier roman de littérature jeunesse à destination d’un public de grands adolescents. Sa vocation est d’encourager la création et la poursuite d’un parcours artistique dans le milieu de l’édition jeunesse[6] », selon le site Ricochet. Le Prix Cendres est composé d’un jury d’auteurs et autrices de « littérature jeunesse confirmés, qui ont tous connus Axl Cendres[6] » : Séverine Vidal, Cathy Ytak, Cécile Roumiguière, Gilles Abier et Antoine Dole.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, avec l’accord de la famille, est créé en son hommage le Prix Cendres qui « récompense chaque année un auteur de premier roman de littérature jeunesse à destination d’un public de grands adolescents. Sa vocation est d’encourager la création et la poursuite d’un parcours artistique dans le milieu de l’édition jeunesse », selon le site Ricochet. Le Prix Cendres est composé d’un jury d’auteurs et autrices de « littérature jeunesse confirmés, qui ont tous connus Axl Cendres » : Séverine Vidal, Cathy Ytak, Cécile Roumiguière, Gilles Abier et Antoine Dole.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Axl_Cendres</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Axl_Cendres</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>La drôle de vie de Bibow Bradley, adapté en BD par Nicolai Pinheiro, Éditions Sarbacane, septembre 2016</t>
         </is>
